--- a/data/trans_orig/P16A18-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A18-Provincia-trans_orig.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 56 años que ha consumido anticonceptivos en las dos últimas semanas en 2007 (tasa de respuesta: 99,96%)</t>
+          <t>Mujeres menores de 55 años según si han consumido anticonceptivos en las dos últimas semanas en 2007 (tasa de respuesta: 99,96%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1481,7 +1481,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 56 años que ha consumido anticonceptivos en las dos últimas semanas en 2012 (tasa de respuesta: 98,99%)</t>
+          <t>Mujeres menores de 55 años según si han consumido anticonceptivos en las dos últimas semanas en 2012 (tasa de respuesta: 98,99%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2422,7 +2422,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 56 años que ha consumido anticonceptivos en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Mujeres menores de 55 años según si han consumido anticonceptivos en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3363,7 +3363,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 56 años que ha consumido anticonceptivos en las dos últimas semanas en 2023 (tasa de respuesta: 99,82%)</t>
+          <t>Mujeres menores de 55 años según si han consumido anticonceptivos en las dos últimas semanas en 2023 (tasa de respuesta: 99,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A18-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A18-Provincia-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>20872</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13020</v>
+        <v>13997</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32005</v>
+        <v>31730</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1089587683596877</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0679688065605087</v>
+        <v>0.07306595504375428</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1670722635825342</v>
+        <v>0.1656416463905565</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>170689</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>159556</v>
+        <v>159831</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>178541</v>
+        <v>177564</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8910412316403122</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8329277364174656</v>
+        <v>0.8343583536094434</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9320311934394913</v>
+        <v>0.9269340449562457</v>
       </c>
     </row>
     <row r="6">
@@ -715,19 +715,19 @@
         <v>33106</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>24378</v>
+        <v>23843</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45822</v>
+        <v>45748</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09405412706108239</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06925848591774862</v>
+        <v>0.06773848446207481</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1301814150844722</v>
+        <v>0.1299705173185115</v>
       </c>
     </row>
     <row r="8">
@@ -744,19 +744,19 @@
         <v>318882</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>306166</v>
+        <v>306240</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>327610</v>
+        <v>328145</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9059458729389176</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8698185849155284</v>
+        <v>0.8700294826814884</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9307415140822515</v>
+        <v>0.9322615155379251</v>
       </c>
     </row>
     <row r="9">
@@ -806,19 +806,19 @@
         <v>8107</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3909</v>
+        <v>3932</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15454</v>
+        <v>15452</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03687695140066621</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01777927598382128</v>
+        <v>0.01788757433318305</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07029516844281178</v>
+        <v>0.07028808155298681</v>
       </c>
     </row>
     <row r="11">
@@ -835,19 +835,19 @@
         <v>211734</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>204387</v>
+        <v>204389</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>215932</v>
+        <v>215909</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9631230485993338</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9297048315571882</v>
+        <v>0.9297119184470131</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9822207240161787</v>
+        <v>0.9821124256668169</v>
       </c>
     </row>
     <row r="12">
@@ -897,19 +897,19 @@
         <v>26594</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17910</v>
+        <v>18298</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>38467</v>
+        <v>38101</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.103143272083392</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06946269592513751</v>
+        <v>0.07096951290930494</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.149192752103262</v>
+        <v>0.147772181223163</v>
       </c>
     </row>
     <row r="14">
@@ -926,19 +926,19 @@
         <v>231239</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>219366</v>
+        <v>219732</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>239923</v>
+        <v>239535</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.896856727916608</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.850807247896738</v>
+        <v>0.852227818776837</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9305373040748625</v>
+        <v>0.9290304870906951</v>
       </c>
     </row>
     <row r="15">
@@ -988,19 +988,19 @@
         <v>18295</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10934</v>
+        <v>11394</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28813</v>
+        <v>27984</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1263832650352388</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07552814839394054</v>
+        <v>0.07870783771724196</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1990353530226624</v>
+        <v>0.1933072896294605</v>
       </c>
     </row>
     <row r="17">
@@ -1017,19 +1017,19 @@
         <v>126467</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>115949</v>
+        <v>116778</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>133828</v>
+        <v>133368</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8736167349647612</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8009646469773377</v>
+        <v>0.8066927103705396</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9244718516060597</v>
+        <v>0.9212921622827581</v>
       </c>
     </row>
     <row r="18">
@@ -1079,19 +1079,19 @@
         <v>24800</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>17220</v>
+        <v>16874</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>35202</v>
+        <v>35016</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1335972696633826</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09276276607677919</v>
+        <v>0.09090150823445026</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1896342514253993</v>
+        <v>0.1886307341015984</v>
       </c>
     </row>
     <row r="20">
@@ -1108,19 +1108,19 @@
         <v>160832</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>150430</v>
+        <v>150616</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>168412</v>
+        <v>168758</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8664027303366174</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8103657485746005</v>
+        <v>0.8113692658984019</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9072372339232208</v>
+        <v>0.90909849176555</v>
       </c>
     </row>
     <row r="21">
@@ -1170,19 +1170,19 @@
         <v>32792</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>22592</v>
+        <v>22334</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>44603</v>
+        <v>45466</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0729728555017207</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05027467766763109</v>
+        <v>0.0497018595058903</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09925757713580688</v>
+        <v>0.1011788184854308</v>
       </c>
     </row>
     <row r="23">
@@ -1199,19 +1199,19 @@
         <v>416574</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>404763</v>
+        <v>403900</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>426774</v>
+        <v>427032</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9270271444982793</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9007424228641931</v>
+        <v>0.8988211815145691</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9497253223323687</v>
+        <v>0.9502981404941094</v>
       </c>
     </row>
     <row r="24">
@@ -1261,19 +1261,19 @@
         <v>46612</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>34889</v>
+        <v>35070</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>60965</v>
+        <v>60463</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08370353051142612</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06265122152544592</v>
+        <v>0.06297744215802863</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1094778260381827</v>
+        <v>0.1085768326561611</v>
       </c>
     </row>
     <row r="26">
@@ -1290,19 +1290,19 @@
         <v>510260</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>495907</v>
+        <v>496409</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>521983</v>
+        <v>521802</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9162964694885739</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8905221739618174</v>
+        <v>0.8914231673438389</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9373487784745542</v>
+        <v>0.9370225578419713</v>
       </c>
     </row>
     <row r="27">
@@ -1352,19 +1352,19 @@
         <v>211178</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>183296</v>
+        <v>185342</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>240131</v>
+        <v>239085</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.08956365109376808</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0777385648503653</v>
+        <v>0.07860623264364419</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1018431405219808</v>
+        <v>0.1013995315425681</v>
       </c>
     </row>
     <row r="29">
@@ -1381,19 +1381,19 @@
         <v>2146677</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2117724</v>
+        <v>2118770</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2174559</v>
+        <v>2172513</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9104363489062319</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8981568594780192</v>
+        <v>0.8986004684574319</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9222614351496348</v>
+        <v>0.9213937673563558</v>
       </c>
     </row>
     <row r="30">
@@ -1565,19 +1565,19 @@
         <v>24464</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15558</v>
+        <v>16274</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>35576</v>
+        <v>37722</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1191180967647171</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07575352438280476</v>
+        <v>0.07923911881560329</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.173222830055244</v>
+        <v>0.1836743416022505</v>
       </c>
     </row>
     <row r="5">
@@ -1594,19 +1594,19 @@
         <v>180912</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>169800</v>
+        <v>167654</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>189818</v>
+        <v>189102</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8808819032352829</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8267771699447563</v>
+        <v>0.8163256583977491</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9242464756171952</v>
+        <v>0.9207608811843965</v>
       </c>
     </row>
     <row r="6">
@@ -1656,19 +1656,19 @@
         <v>26656</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17534</v>
+        <v>18150</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>39767</v>
+        <v>39890</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0725536830824972</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04772519416496732</v>
+        <v>0.04939966234784545</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1082383120111334</v>
+        <v>0.1085733537578787</v>
       </c>
     </row>
     <row r="8">
@@ -1685,19 +1685,19 @@
         <v>340747</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>327636</v>
+        <v>327513</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>349869</v>
+        <v>349253</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9274463169175028</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8917616879888666</v>
+        <v>0.891426646242121</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9522748058350327</v>
+        <v>0.9506003376521541</v>
       </c>
     </row>
     <row r="9">
@@ -1747,19 +1747,19 @@
         <v>30541</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21154</v>
+        <v>21283</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>42516</v>
+        <v>42634</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1362152563194419</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0943499039741674</v>
+        <v>0.09492361250478801</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1896284356990352</v>
+        <v>0.1901522798424369</v>
       </c>
     </row>
     <row r="11">
@@ -1776,19 +1776,19 @@
         <v>193668</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>181693</v>
+        <v>181575</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>203055</v>
+        <v>202926</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8637847436805581</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8103715643009648</v>
+        <v>0.8098477201575633</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9056500960258327</v>
+        <v>0.905076387495212</v>
       </c>
     </row>
     <row r="12">
@@ -1838,19 +1838,19 @@
         <v>23174</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15164</v>
+        <v>14552</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>34056</v>
+        <v>33307</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08957463389633726</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05861528174982002</v>
+        <v>0.05624619051611577</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1316386004010644</v>
+        <v>0.1287422156058951</v>
       </c>
     </row>
     <row r="14">
@@ -1867,19 +1867,19 @@
         <v>235538</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>224656</v>
+        <v>225405</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>243548</v>
+        <v>244160</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9104253661036628</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8683613995989355</v>
+        <v>0.871257784394105</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.94138471825018</v>
+        <v>0.9437538094838843</v>
       </c>
     </row>
     <row r="15">
@@ -1929,19 +1929,19 @@
         <v>23351</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>16197</v>
+        <v>15704</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>32442</v>
+        <v>32926</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1581969406948618</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1097288038688799</v>
+        <v>0.106390800409541</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2197859778925554</v>
+        <v>0.2230650853784832</v>
       </c>
     </row>
     <row r="17">
@@ -1958,19 +1958,19 @@
         <v>124258</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>115167</v>
+        <v>114683</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>131412</v>
+        <v>131905</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8418030593051382</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7802140221074446</v>
+        <v>0.7769349146215165</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.89027119613112</v>
+        <v>0.8936091995904588</v>
       </c>
     </row>
     <row r="18">
@@ -2020,19 +2020,19 @@
         <v>22397</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>14158</v>
+        <v>14824</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>31316</v>
+        <v>33953</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1244245504583133</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07865348062227252</v>
+        <v>0.08235699016457249</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1739782035754592</v>
+        <v>0.1886229169890872</v>
       </c>
     </row>
     <row r="20">
@@ -2049,19 +2049,19 @@
         <v>157605</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>148686</v>
+        <v>146049</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>165844</v>
+        <v>165178</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8755754495416868</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8260217964245408</v>
+        <v>0.8113770830109132</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9213465193777275</v>
+        <v>0.9176430098354277</v>
       </c>
     </row>
     <row r="21">
@@ -2111,19 +2111,19 @@
         <v>32027</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>22500</v>
+        <v>21890</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>45335</v>
+        <v>43734</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06797183741133593</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04775201045015076</v>
+        <v>0.04645817780247129</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09621574465587614</v>
+        <v>0.09281809407475639</v>
       </c>
     </row>
     <row r="23">
@@ -2140,19 +2140,19 @@
         <v>439152</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>425844</v>
+        <v>427445</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>448679</v>
+        <v>449289</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9320281625886641</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9037842553441238</v>
+        <v>0.9071819059252435</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9522479895498491</v>
+        <v>0.9535418221975286</v>
       </c>
     </row>
     <row r="24">
@@ -2202,19 +2202,19 @@
         <v>50552</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>37624</v>
+        <v>39216</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>67584</v>
+        <v>68384</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08830578525892799</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06572311300411862</v>
+        <v>0.06850363714831621</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1180582426833515</v>
+        <v>0.1194566761806136</v>
       </c>
     </row>
     <row r="26">
@@ -2231,19 +2231,19 @@
         <v>521909</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>504877</v>
+        <v>504077</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>534837</v>
+        <v>533245</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.911694214741072</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8819417573166485</v>
+        <v>0.8805433238193864</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9342768869958813</v>
+        <v>0.9314963628516837</v>
       </c>
     </row>
     <row r="27">
@@ -2293,19 +2293,19 @@
         <v>233162</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>205935</v>
+        <v>205034</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>266653</v>
+        <v>267676</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.09607182632570507</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.08485347423174242</v>
+        <v>0.0844820002930719</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1098717759176202</v>
+        <v>0.1102933653142961</v>
       </c>
     </row>
     <row r="29">
@@ -2322,19 +2322,19 @@
         <v>2193788</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2160297</v>
+        <v>2159274</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2221015</v>
+        <v>2221916</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9039281736742949</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8901282240823798</v>
+        <v>0.8897066346857039</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9151465257682576</v>
+        <v>0.9155179997069282</v>
       </c>
     </row>
     <row r="30">
@@ -2506,19 +2506,19 @@
         <v>5253</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1814</v>
+        <v>1792</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10615</v>
+        <v>10501</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02571363586486897</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008879423467666321</v>
+        <v>0.008772172531692431</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05196359923490289</v>
+        <v>0.05140774305211793</v>
       </c>
     </row>
     <row r="5">
@@ -2535,19 +2535,19 @@
         <v>199021</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>193659</v>
+        <v>193773</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>202460</v>
+        <v>202482</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.974286364135131</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9480364007650971</v>
+        <v>0.9485922569478821</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9911205765323337</v>
+        <v>0.9912278274683075</v>
       </c>
     </row>
     <row r="6">
@@ -2597,19 +2597,19 @@
         <v>27593</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19510</v>
+        <v>18888</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>39354</v>
+        <v>38531</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08223302160507745</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05814349771453738</v>
+        <v>0.0562910417725923</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1172830932817645</v>
+        <v>0.1148294125640656</v>
       </c>
     </row>
     <row r="8">
@@ -2626,19 +2626,19 @@
         <v>307955</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>296194</v>
+        <v>297017</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>316038</v>
+        <v>316660</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9177669783949225</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8827169067182351</v>
+        <v>0.8851705874359344</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9418565022854626</v>
+        <v>0.9437089582274076</v>
       </c>
     </row>
     <row r="9">
@@ -2688,19 +2688,19 @@
         <v>5546</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2563</v>
+        <v>1908</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11396</v>
+        <v>12105</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02604623462448151</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01203912574611437</v>
+        <v>0.008959993326672211</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05352536579925567</v>
+        <v>0.05685203514056118</v>
       </c>
     </row>
     <row r="11">
@@ -2717,19 +2717,19 @@
         <v>207371</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>201521</v>
+        <v>200812</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>210354</v>
+        <v>211009</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9739537653755185</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9464746342007452</v>
+        <v>0.9431479648594389</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9879608742538857</v>
+        <v>0.991040006673328</v>
       </c>
     </row>
     <row r="12">
@@ -2779,19 +2779,19 @@
         <v>14675</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9053</v>
+        <v>8481</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24369</v>
+        <v>24218</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05994666473265629</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03697961645744912</v>
+        <v>0.03464636804600297</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09954625954099407</v>
+        <v>0.09892869281835127</v>
       </c>
     </row>
     <row r="14">
@@ -2808,19 +2808,19 @@
         <v>230124</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>220430</v>
+        <v>220581</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>235746</v>
+        <v>236318</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9400533352673437</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9004537404590058</v>
+        <v>0.901071307181649</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9630203835425507</v>
+        <v>0.965353631953997</v>
       </c>
     </row>
     <row r="15">
@@ -2870,19 +2870,19 @@
         <v>12331</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7025</v>
+        <v>6984</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19360</v>
+        <v>19566</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08867610398552313</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05052084932378393</v>
+        <v>0.05022352628387215</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1392209527811321</v>
+        <v>0.1407022732823908</v>
       </c>
     </row>
     <row r="17">
@@ -2899,19 +2899,19 @@
         <v>126727</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>119698</v>
+        <v>119492</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>132033</v>
+        <v>132074</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9113238960144768</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8607790472188681</v>
+        <v>0.8592977267176094</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.949479150676216</v>
+        <v>0.9497764737161279</v>
       </c>
     </row>
     <row r="18">
@@ -2961,19 +2961,19 @@
         <v>6471</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2707</v>
+        <v>2730</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12539</v>
+        <v>12147</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03828783456265399</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01601688800119475</v>
+        <v>0.01615466560942435</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07419331548926271</v>
+        <v>0.0718729222192999</v>
       </c>
     </row>
     <row r="20">
@@ -2990,19 +2990,19 @@
         <v>162538</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>156470</v>
+        <v>156862</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>166302</v>
+        <v>166279</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9617121654373461</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9258066845107371</v>
+        <v>0.9281270777806998</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9839831119988053</v>
+        <v>0.9838453343905756</v>
       </c>
     </row>
     <row r="21">
@@ -3052,19 +3052,19 @@
         <v>37264</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>26403</v>
+        <v>26977</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>50665</v>
+        <v>51032</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0782961484535214</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05547544773617044</v>
+        <v>0.05668221743869163</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1064514015085099</v>
+        <v>0.1072221601065645</v>
       </c>
     </row>
     <row r="23">
@@ -3081,19 +3081,19 @@
         <v>438678</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>425277</v>
+        <v>424910</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>449539</v>
+        <v>448965</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9217038515464786</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8935485984914903</v>
+        <v>0.8927778398934356</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9445245522638296</v>
+        <v>0.9433177825613088</v>
       </c>
     </row>
     <row r="24">
@@ -3143,19 +3143,19 @@
         <v>39507</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>28571</v>
+        <v>28808</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>53784</v>
+        <v>52421</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0716968190965481</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05185041141642709</v>
+        <v>0.05228101545783331</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09760742143366714</v>
+        <v>0.09513391387821594</v>
       </c>
     </row>
     <row r="26">
@@ -3172,19 +3172,19 @@
         <v>511518</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>497241</v>
+        <v>498604</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>522454</v>
+        <v>522217</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9283031809034519</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9023925785663334</v>
+        <v>0.9048660861217841</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9481495885835732</v>
+        <v>0.9477189845421667</v>
       </c>
     </row>
     <row r="27">
@@ -3234,19 +3234,19 @@
         <v>148640</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>126305</v>
+        <v>127654</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>172495</v>
+        <v>174149</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.06372347490961837</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05414850141410672</v>
+        <v>0.05472675519350145</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07395056928518276</v>
+        <v>0.07465980919026305</v>
       </c>
     </row>
     <row r="29">
@@ -3263,19 +3263,19 @@
         <v>2183933</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2160078</v>
+        <v>2158424</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2206268</v>
+        <v>2204919</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9362765250903816</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9260494307148173</v>
+        <v>0.9253401908097371</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9458514985858933</v>
+        <v>0.9452732448064985</v>
       </c>
     </row>
     <row r="30">
@@ -3447,19 +3447,19 @@
         <v>5677</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2468</v>
+        <v>2361</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12037</v>
+        <v>11383</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.02761933648656537</v>
+        <v>0.02761933648656538</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01200830687419351</v>
+        <v>0.01148931163718099</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05856694753779287</v>
+        <v>0.0553846262547665</v>
       </c>
     </row>
     <row r="5">
@@ -3476,19 +3476,19 @@
         <v>199855</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>193495</v>
+        <v>194149</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>203064</v>
+        <v>203171</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9723806635134346</v>
+        <v>0.9723806635134347</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9414330524622078</v>
+        <v>0.9446153737452336</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9879916931258068</v>
+        <v>0.988510688362819</v>
       </c>
     </row>
     <row r="6">
@@ -3538,19 +3538,19 @@
         <v>6018</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2386</v>
+        <v>2354</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11901</v>
+        <v>12078</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01837027798580007</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007283516908250404</v>
+        <v>0.007186523623895181</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03633137491566055</v>
+        <v>0.03687255441922061</v>
       </c>
     </row>
     <row r="8">
@@ -3567,19 +3567,19 @@
         <v>321552</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>315669</v>
+        <v>315492</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>325184</v>
+        <v>325216</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9816297220142</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9636686250843393</v>
+        <v>0.9631274455807807</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9927164830917495</v>
+        <v>0.9928134763761052</v>
       </c>
     </row>
     <row r="9">
@@ -3629,19 +3629,19 @@
         <v>4508</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1574</v>
+        <v>1597</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10513</v>
+        <v>9898</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02155522773409697</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007526198130647067</v>
+        <v>0.007634507951411334</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05027246799255359</v>
+        <v>0.04733093489713375</v>
       </c>
     </row>
     <row r="11">
@@ -3658,19 +3658,19 @@
         <v>204622</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>198617</v>
+        <v>199232</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>207556</v>
+        <v>207533</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9784447722659032</v>
+        <v>0.978444772265903</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9497275320074469</v>
+        <v>0.952669065102867</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.992473801869353</v>
+        <v>0.9923654920485889</v>
       </c>
     </row>
     <row r="12">
@@ -3720,19 +3720,19 @@
         <v>13718</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7669</v>
+        <v>7067</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24966</v>
+        <v>24270</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.05483210024173281</v>
+        <v>0.0548321002417328</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03065303908519863</v>
+        <v>0.02824807697593736</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09979326558639874</v>
+        <v>0.09701075189017903</v>
       </c>
     </row>
     <row r="14">
@@ -3749,19 +3749,19 @@
         <v>236456</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>225208</v>
+        <v>225904</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>242505</v>
+        <v>243107</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9451678997582672</v>
+        <v>0.945167899758267</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9002067344136012</v>
+        <v>0.9029892481098208</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9693469609148014</v>
+        <v>0.9717519230240625</v>
       </c>
     </row>
     <row r="15">
@@ -3814,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3233</v>
+        <v>3020</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004396750330110012</v>
@@ -3823,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0241888923502426</v>
+        <v>0.02259734883465778</v>
       </c>
     </row>
     <row r="17">
@@ -3840,16 +3840,16 @@
         <v>133053</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>130408</v>
+        <v>130621</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>133641</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9956032496698901</v>
+        <v>0.9956032496698899</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9758111076497584</v>
+        <v>0.9774026511653425</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -3902,19 +3902,19 @@
         <v>3689</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1406</v>
+        <v>1379</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9421</v>
+        <v>8862</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02342284139215016</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.008928640590580701</v>
+        <v>0.008754709241667135</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05981624762263498</v>
+        <v>0.05626723796071951</v>
       </c>
     </row>
     <row r="20">
@@ -3931,19 +3931,19 @@
         <v>153804</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>148072</v>
+        <v>148631</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>156087</v>
+        <v>156114</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.97657715860785</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9401837523773648</v>
+        <v>0.9437327620392806</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9910713594094193</v>
+        <v>0.9912452907583329</v>
       </c>
     </row>
     <row r="21">
@@ -3993,19 +3993,19 @@
         <v>27353</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>18243</v>
+        <v>18187</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>39759</v>
+        <v>39832</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.05451281092883809</v>
+        <v>0.05451281092883808</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03635749884392973</v>
+        <v>0.03624621429303975</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07923800169425943</v>
+        <v>0.07938270659422425</v>
       </c>
     </row>
     <row r="23">
@@ -4022,19 +4022,19 @@
         <v>474418</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>462012</v>
+        <v>461939</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>483528</v>
+        <v>483584</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9454871890711619</v>
+        <v>0.945487189071162</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9207619983057406</v>
+        <v>0.9206172934057759</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9636425011560703</v>
+        <v>0.9637537857069602</v>
       </c>
     </row>
     <row r="24">
@@ -4084,19 +4084,19 @@
         <v>4133</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>797</v>
+        <v>817</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>13199</v>
+        <v>14568</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.008338373176445504</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.001607580752464462</v>
+        <v>0.001647899114458867</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02663202994732983</v>
+        <v>0.02939402490874094</v>
       </c>
     </row>
     <row r="26">
@@ -4113,19 +4113,19 @@
         <v>491477</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>482411</v>
+        <v>481042</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>494813</v>
+        <v>494793</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9916616268235545</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9733679700526693</v>
+        <v>0.9706059750912592</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9983924192475356</v>
+        <v>0.9983521008855412</v>
       </c>
     </row>
     <row r="27">
@@ -4175,19 +4175,19 @@
         <v>65682</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>52046</v>
+        <v>51405</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>84845</v>
+        <v>82911</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02879613205893626</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02281793029578846</v>
+        <v>0.02253686132694101</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03719772349992602</v>
+        <v>0.03634967739912502</v>
       </c>
     </row>
     <row r="29">
@@ -4204,19 +4204,19 @@
         <v>2215239</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2196076</v>
+        <v>2198010</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2228875</v>
+        <v>2229516</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.9712038679410638</v>
+        <v>0.9712038679410636</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9628022765000739</v>
+        <v>0.963650322600875</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9771820697042113</v>
+        <v>0.977463138673059</v>
       </c>
     </row>
     <row r="30">
